--- a/RePlannings.xlsx
+++ b/RePlannings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienbeguin/Desktop/Mon_App_Planning_Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5998CF02-37A2-124E-9F35-76942D63AA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34413572-0FB0-EC46-84CF-6CBFFE0EFEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="540" windowWidth="38400" windowHeight="20940" xr2:uid="{C78783E1-6661-BF43-BD87-6C2ADCEC8CBE}"/>
+    <workbookView xWindow="5800" yWindow="1520" windowWidth="38400" windowHeight="20940" xr2:uid="{C78783E1-6661-BF43-BD87-6C2ADCEC8CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -286,7 +286,7 @@
   <autoFilter ref="A1:F337" xr:uid="{D7341869-73E2-3947-BB49-A7045063DF4A}">
     <filterColumn colId="1">
       <filters>
-        <filter val="S41"/>
+        <filter val="S43"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -627,7 +627,7 @@
   <dimension ref="A1:F337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36:E36"/>
+      <selection activeCell="D74" sqref="D74:E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -660,7 +660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -793,7 +793,7 @@
         <v>0.12499999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -829,7 +829,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -850,7 +850,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>0.35416666666666663</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>0.35416666666666663</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -1950,18 +1950,14 @@
       <c r="C74" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="1">
-        <v>0.4375</v>
-      </c>
-      <c r="E74" s="1">
-        <v>0.79166666666666663</v>
-      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
       <c r="F74" s="1">
         <f t="shared" si="2"/>
-        <v>0.35416666666666663</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -1982,7 +1978,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -2003,7 +1999,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -2024,7 +2020,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -2039,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -2060,7 +2056,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -2081,7 +2077,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2102,7 +2098,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -2117,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -2132,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -2147,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>5</v>
       </c>
